--- a/data/DMS실습(5)-상관분석과 회귀분석.xlsx
+++ b/data/DMS실습(5)-상관분석과 회귀분석.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>3. log세션과 좋아요수 사이의 회귀직선을 구해보세요.</t>
   </si>
   <si>
-    <t>4. 개선작업 ?</t>
-  </si>
-  <si>
     <t>2) 변수 추가</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>1) 이상치 분석 및 제거</t>
+  </si>
+  <si>
+    <t>5. 개선작업 ?</t>
   </si>
 </sst>
 </file>
@@ -377,14 +377,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +719,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
@@ -810,10 +810,10 @@
       <c r="C36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="39" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
@@ -827,12 +827,12 @@
       <c r="C59" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -849,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6956,9 +6956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7778,7 +7776,7 @@
       <c r="C71" s="9">
         <v>0</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="19" t="s">
@@ -8081,20 +8079,20 @@
       <c r="G94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
       <c r="P94" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Q94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="23"/>
-      <c r="S94" s="23"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="23"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
@@ -8402,7 +8400,7 @@
       </c>
       <c r="D119" s="8"/>
       <c r="F119" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -8417,7 +8415,7 @@
       </c>
       <c r="D120" s="8"/>
       <c r="F120" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -8432,7 +8430,7 @@
       </c>
       <c r="D121" s="8"/>
       <c r="F121" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -8447,7 +8445,7 @@
       </c>
       <c r="D122" s="8"/>
       <c r="F122" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/DMS실습(5)-상관분석과 회귀분석.xlsx
+++ b/data/DMS실습(5)-상관분석과 회귀분석.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="16200" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>MASTER</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">회귀식 </t>
   </si>
   <si>
-    <t>y = 0.67x + 32.85</t>
-  </si>
-  <si>
     <t>1. 세션과 좋아요수의 Scatter Plot 을 그려보세요.</t>
   </si>
   <si>
@@ -117,6 +114,15 @@
   </si>
   <si>
     <t>5. 개선작업 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0. 데이터분석을 9/14부터 하는 이유</t>
+  </si>
+  <si>
+    <t>블로그 이관작업 진행하던 시기여서, 제대로된 세션이 기록되지 않음</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G59"/>
+  <dimension ref="B2:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,25 +826,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
+    <row r="61" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -855,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -6956,7 +6960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7524,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>42604</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>42605</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>42606</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>42607</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>42608</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>42609</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>42610</v>
       </c>
@@ -7601,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>42611</v>
       </c>
@@ -7612,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>42612</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42613</v>
       </c>
@@ -7633,8 +7639,11 @@
       <c r="C58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F58" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>42614</v>
       </c>
@@ -7644,8 +7653,11 @@
       <c r="C59" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F59" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>42615</v>
       </c>
@@ -7656,7 +7668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>42616</v>
       </c>
@@ -7667,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>42617</v>
       </c>
@@ -7678,7 +7690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>42618</v>
       </c>
@@ -7689,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>42619</v>
       </c>
@@ -7780,10 +7792,10 @@
         <v>7</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -7978,10 +7990,10 @@
       </c>
       <c r="D87" s="8"/>
       <c r="F87" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P87" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -8056,10 +8068,10 @@
       </c>
       <c r="D93" s="8"/>
       <c r="F93" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P93" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -8400,7 +8412,7 @@
       </c>
       <c r="D119" s="8"/>
       <c r="F119" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -8415,7 +8427,7 @@
       </c>
       <c r="D120" s="8"/>
       <c r="F120" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -8430,7 +8442,7 @@
       </c>
       <c r="D121" s="8"/>
       <c r="F121" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -8445,7 +8457,7 @@
       </c>
       <c r="D122" s="8"/>
       <c r="F122" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
